--- a/resources/CalibrationCalcul.xlsx
+++ b/resources/CalibrationCalcul.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EAA93A-230E-4C4F-ABD4-4EC634A49C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C1634B-44B1-4CE5-9CF1-78C5E0C613B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-2820" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/resources/CalibrationCalcul.xlsx
+++ b/resources/CalibrationCalcul.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C1634B-44B1-4CE5-9CF1-78C5E0C613B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E00648-38AA-46EA-B06E-EF09C44FEACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2820" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-2820" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X" sheetId="3" r:id="rId1"/>
@@ -1722,49 +1722,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1776,49 +1776,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.19000000000000039</c:v>
+                  <c:v>-5.0000000000000711E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9999999999999361E-2</c:v>
+                  <c:v>-8.9999999999999858E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-5.9999999999998721E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-3.9999999999999147E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.0000000000001563E-2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.0000000000000711E-2</c:v>
+                  <c:v>-7.9999999999998295E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.0000000000001137E-2</c:v>
+                  <c:v>-7.0000000000000284E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.9999999999997158E-2</c:v>
+                  <c:v>-0.12000000000000455</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9999999999994316E-2</c:v>
+                  <c:v>-0.10999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9999999999997158E-2</c:v>
+                  <c:v>1.9999999999996021E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-7.9999999999998295E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0000000000001563E-2</c:v>
+                  <c:v>-7.9999999999998295E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.9999999999998295E-2</c:v>
+                  <c:v>-9.0000000000003411E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-3.9999999999992042E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9999999999999147E-2</c:v>
+                  <c:v>-6.0000000000002274E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12999999999999989</c:v>
+                  <c:v>-9.9999999999909051E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,49 +1873,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,49 +1927,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.18980478716195837</c:v>
+                  <c:v>-5.1711792738444728E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9622738966171624E-2</c:v>
+                  <c:v>-9.3425305871601694E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.0562694423334378E-2</c:v>
+                  <c:v>-6.5150861767740764E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0751889139203996E-2</c:v>
+                  <c:v>-4.6874697269167598E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.0938450926619083E-2</c:v>
+                  <c:v>-8.8588210402328116E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.1879534781694474E-2</c:v>
+                  <c:v>-8.0310325509046265E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.3759445696016428E-2</c:v>
+                  <c:v>-0.13202211824749099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4354249134852353E-2</c:v>
+                  <c:v>-0.12374423335420204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5296461387820841E-2</c:v>
+                  <c:v>4.5130068025258652E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.820994769393792E-3</c:v>
+                  <c:v>-9.7190183962354126E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0592922775662998E-3</c:v>
+                  <c:v>-9.8910578674349381E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.0749256210751241E-2</c:v>
+                  <c:v>-0.11062925299165727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.6419895387982422E-4</c:v>
+                  <c:v>-6.2358249677203048E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9622362833535263E-2</c:v>
+                  <c:v>-8.4075203599809356E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12980704395777298</c:v>
+                  <c:v>-3.5804200285355137E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2209,16 +2209,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2319,16 +2319,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3244,22 +3244,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3171264</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>170513</xdr:rowOff>
+      <xdr:colOff>3539839</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Grafik 5">
+        <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08141DBC-BF31-4BFD-B790-CFEF54378F83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,818 +3268,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3787588"/>
-          <a:ext cx="3171264" cy="2826307"/>
+          <a:off x="89647" y="4560795"/>
+          <a:ext cx="3450192" cy="2084294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1804147</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3204882</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1804147" y="3888441"/>
-          <a:ext cx="1400735" cy="100853"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1781735</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3126441</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1781735" y="4101353"/>
-          <a:ext cx="1344706" cy="156882"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1781735</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3115235</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Gerade Verbindung mit Pfeil 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1781735" y="4303059"/>
-          <a:ext cx="1333500" cy="156882"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1871382</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3081618</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1871382" y="4471147"/>
-          <a:ext cx="1210236" cy="190501"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1871382</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3081618</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Gerade Verbindung mit Pfeil 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1871382" y="4650441"/>
-          <a:ext cx="1210236" cy="212913"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2129118</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3115235</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2129118" y="4829735"/>
-          <a:ext cx="986117" cy="145677"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2543736</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3115235</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>145678</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Gerade Verbindung mit Pfeil 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2543736" y="5020235"/>
-          <a:ext cx="571499" cy="44825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3003176</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3171264</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>90860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Gerade Verbindung mit Pfeil 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="6" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3003176" y="5188324"/>
-          <a:ext cx="168088" cy="12418"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2767853</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3126441</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Gerade Verbindung mit Pfeil 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2767853" y="5289176"/>
-          <a:ext cx="358588" cy="67236"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2342029</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3148853</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Gerade Verbindung mit Pfeil 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2342029" y="5367618"/>
-          <a:ext cx="806824" cy="179294"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1826559</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3137647</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Gerade Verbindung mit Pfeil 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1826559" y="5490882"/>
-          <a:ext cx="1311088" cy="280147"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1837765</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3160059</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Gerade Verbindung mit Pfeil 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1837765" y="5771029"/>
-          <a:ext cx="1322294" cy="179295"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1759324</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3148853</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Gerade Verbindung mit Pfeil 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1759324" y="5995147"/>
-          <a:ext cx="1389529" cy="156882"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1770529</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3148853</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Gerade Verbindung mit Pfeil 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1770529" y="6241676"/>
-          <a:ext cx="1378324" cy="112059"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1692088</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3148853</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Gerade Verbindung mit Pfeil 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1692088" y="6454588"/>
-          <a:ext cx="1456765" cy="112059"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4128,14 +3331,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>105578</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4166,22 +3369,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>172478</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>29228</xdr:rowOff>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2998785</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>141286</xdr:rowOff>
+      <xdr:colOff>3562250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3">
+        <xdr:cNvPr id="20" name="Image 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52091A02-08DA-45E6-841A-4B2D4BA07A8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4190,818 +3393,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="0" y="3978088"/>
-          <a:ext cx="3171264" cy="2826307"/>
+        <a:xfrm>
+          <a:off x="112058" y="4336676"/>
+          <a:ext cx="3450192" cy="2084294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1804147</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3204882</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Gerade Verbindung mit Pfeil 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1804147" y="4074459"/>
-          <a:ext cx="1400735" cy="100853"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1781735</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3126441</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1781735" y="4287371"/>
-          <a:ext cx="1344706" cy="156882"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1781735</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3115235</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Gerade Verbindung mit Pfeil 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1781735" y="4489077"/>
-          <a:ext cx="1333500" cy="156882"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1871382</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3081618</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1871382" y="4657165"/>
-          <a:ext cx="1210236" cy="190501"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1871382</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3081618</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1871382" y="4836459"/>
-          <a:ext cx="1210236" cy="212913"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2129118</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3115235</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2129118" y="5015753"/>
-          <a:ext cx="986117" cy="145677"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2543736</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3115235</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>145678</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Gerade Verbindung mit Pfeil 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2543736" y="5206253"/>
-          <a:ext cx="571499" cy="44825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2868706</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>90860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2998786</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Gerade Verbindung mit Pfeil 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2868706" y="5391242"/>
-          <a:ext cx="130080" cy="9993"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2767853</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3126441</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Gerade Verbindung mit Pfeil 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2767853" y="5475194"/>
-          <a:ext cx="358588" cy="67236"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2342029</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3148853</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2342029" y="5553636"/>
-          <a:ext cx="806824" cy="179294"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1826559</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3137647</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1826559" y="5676900"/>
-          <a:ext cx="1311088" cy="280147"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1837765</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3160059</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Gerade Verbindung mit Pfeil 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1837765" y="5957047"/>
-          <a:ext cx="1322294" cy="179295"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1759324</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3148853</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Gerade Verbindung mit Pfeil 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1759324" y="6181165"/>
-          <a:ext cx="1389529" cy="156882"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1770529</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3148853</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1770529" y="6427694"/>
-          <a:ext cx="1378324" cy="112059"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1692088</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3148853</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Gerade Verbindung mit Pfeil 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1692088" y="6640606"/>
-          <a:ext cx="1456765" cy="112059"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5965,8 +4371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6266,9 +4672,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
-        <v>2</v>
-      </c>
+      <c r="A23" s="40"/>
       <c r="B23" s="5">
         <v>20</v>
       </c>
@@ -6984,8 +5388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7041,7 +5445,7 @@
       </c>
       <c r="D5" s="13">
         <f>C10*C5</f>
-        <v>79.996990938912646</v>
+        <v>79.986236842303967</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7054,7 +5458,7 @@
       </c>
       <c r="D6" s="13" t="str">
         <f>CONCATENATE("M92 ",B1,D5)</f>
-        <v>M92 Y79.9969909389126</v>
+        <v>M92 Y79.986236842304</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>43</v>
@@ -7076,11 +5480,11 @@
       <c r="B8" s="3"/>
       <c r="C8" s="47">
         <f>SQRT(SUMSQ(F21:F35)/COUNT(F21:F35))</f>
-        <v>7.1427401117407571E-2</v>
+        <v>3.7930835731893188E-2</v>
       </c>
       <c r="D8" s="4">
         <f>SQRT(SUMSQ(H21:H35)/COUNT(H22:H34))</f>
-        <v>7.6686115377868111E-2</v>
+        <v>3.7139036667951653E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7090,11 +5494,11 @@
       <c r="B9" s="3"/>
       <c r="C9" s="37">
         <f>INTERCEPT(E21:E35,C21:C35)</f>
-        <v>1.7810810810811369E-2</v>
+        <v>-7.7714285714287207E-2</v>
       </c>
       <c r="D9" s="4">
         <f>C9</f>
-        <v>1.7810810810811369E-2</v>
+        <v>-7.7714285714287207E-2</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -7107,7 +5511,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="64">
         <f>SLOPE(C21:C35,D21:D35)</f>
-        <v>0.99996238673640803</v>
+        <v>0.99982796052879952</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="39"/>
@@ -7143,11 +5547,11 @@
       <c r="B14" s="3"/>
       <c r="C14" s="24">
         <f>C8+ABS(C9)</f>
-        <v>8.9238211928218944E-2</v>
+        <v>0.11564512144618039</v>
       </c>
       <c r="D14" s="4">
         <f>D8</f>
-        <v>7.6686115377868111E-2</v>
+        <v>3.7139036667951653E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7157,11 +5561,11 @@
       <c r="B15" s="3"/>
       <c r="C15" s="20">
         <f>C8*2+ABS(C9)</f>
-        <v>0.16066561304562652</v>
+        <v>0.1535759571780736</v>
       </c>
       <c r="D15" s="4">
         <f>D8*2</f>
-        <v>0.15337223075573622</v>
+        <v>7.4278073335903305E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7171,11 +5575,11 @@
       <c r="B16" s="3"/>
       <c r="C16" s="20">
         <f>C8*3+ABS(C9)</f>
-        <v>0.23209301416303407</v>
+        <v>0.19150679290996678</v>
       </c>
       <c r="D16" s="4">
         <f>D8*3</f>
-        <v>0.23005834613360432</v>
+        <v>0.11141711000385496</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7185,7 +5589,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="26">
         <f>(1-C10)</f>
-        <v>3.7613263591973478E-5</v>
+        <v>1.7203947120048024E-4</v>
       </c>
       <c r="D17" s="27">
         <v>0</v>
@@ -7236,30 +5640,30 @@
         <v>1</v>
       </c>
       <c r="B21" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3">
         <f>B21*$B$2</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D21" s="42">
-        <v>5.19</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E21" s="41">
         <f>D21-C21</f>
-        <v>0.19000000000000039</v>
+        <v>-5.0000000000000711E-2</v>
       </c>
       <c r="F21" s="4">
         <f>E21-$C$9</f>
-        <v>0.17218918918918902</v>
+        <v>2.7714285714286496E-2</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" ref="G21:G35" si="0">D21*$C$10-C21</f>
-        <v>0.18980478716195837</v>
+        <v>-5.1711792738444728E-2</v>
       </c>
       <c r="H21" s="16">
         <f>G21-$C$9</f>
-        <v>0.17199397635114699</v>
+        <v>2.6002492975842478E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -7267,30 +5671,30 @@
         <v>2</v>
       </c>
       <c r="B22" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:C35" si="1">B22*$B$2</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D22" s="42">
-        <v>10.029999999999999</v>
+        <v>19.91</v>
       </c>
       <c r="E22" s="41">
         <f>D22-C22</f>
-        <v>2.9999999999999361E-2</v>
+        <v>-8.9999999999999858E-2</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ref="F22:F35" si="2">E22-$C$9</f>
-        <v>1.2189189189187991E-2</v>
+        <v>-1.2285714285712651E-2</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>2.9622738966171624E-2</v>
+        <v>-9.3425305871601694E-2</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" ref="H22:H35" si="3">G22-$C$9</f>
-        <v>1.1811928155360255E-2</v>
+        <v>-1.5711020157314487E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -7298,30 +5702,30 @@
         <v>3</v>
       </c>
       <c r="B23" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D23" s="42">
-        <v>14.96</v>
+        <v>29.94</v>
       </c>
       <c r="E23" s="41">
         <f t="shared" ref="E23:E35" si="4">D23-C23</f>
-        <v>-3.9999999999999147E-2</v>
+        <v>-5.9999999999998721E-2</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>-5.781081081081052E-2</v>
+        <v>1.7714285714288486E-2</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="0"/>
-        <v>-4.0562694423334378E-2</v>
+        <v>-6.5150861767740764E-2</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" si="3"/>
-        <v>-5.8373505234145751E-2</v>
+        <v>1.2563423946546443E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -7329,30 +5733,30 @@
         <v>4</v>
       </c>
       <c r="B24" s="5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D24" s="42">
-        <v>19.989999999999998</v>
+        <v>39.96</v>
       </c>
       <c r="E24" s="41">
         <f t="shared" si="4"/>
-        <v>-1.0000000000001563E-2</v>
+        <v>-3.9999999999999147E-2</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
-        <v>-2.7810810810812932E-2</v>
+        <v>3.7714285714288059E-2</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="0"/>
-        <v>-1.0751889139203996E-2</v>
+        <v>-4.6874697269167598E-2</v>
       </c>
       <c r="H24" s="16">
         <f t="shared" si="3"/>
-        <v>-2.8562699950015365E-2</v>
+        <v>3.0839588445119609E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -7360,30 +5764,30 @@
         <v>5</v>
       </c>
       <c r="B25" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D25" s="42">
-        <v>24.95</v>
+        <v>49.92</v>
       </c>
       <c r="E25" s="41">
         <f t="shared" si="4"/>
-        <v>-5.0000000000000711E-2</v>
+        <v>-7.9999999999998295E-2</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>-6.7810810810812083E-2</v>
+        <v>-2.2857142857110879E-3</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="0"/>
-        <v>-5.0938450926619083E-2</v>
+        <v>-8.8588210402328116E-2</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" si="3"/>
-        <v>-6.8749261737430456E-2</v>
+        <v>-1.0873924688040909E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -7391,30 +5795,30 @@
         <v>6</v>
       </c>
       <c r="B26" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D26" s="42">
-        <v>49.97</v>
+        <v>59.93</v>
       </c>
       <c r="E26" s="41">
         <f t="shared" si="4"/>
-        <v>-3.0000000000001137E-2</v>
+        <v>-7.0000000000000284E-2</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>-4.781081081081251E-2</v>
+        <v>7.7142857142869226E-3</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>-3.1879534781694474E-2</v>
+        <v>-8.0310325509046265E-2</v>
       </c>
       <c r="H26" s="16">
         <f t="shared" si="3"/>
-        <v>-4.9690345592505847E-2</v>
+        <v>-2.5960397947590585E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -7422,30 +5826,30 @@
         <v>7</v>
       </c>
       <c r="B27" s="5">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D27" s="42">
-        <v>99.95</v>
+        <v>69.88</v>
       </c>
       <c r="E27" s="41">
         <f t="shared" si="4"/>
-        <v>-4.9999999999997158E-2</v>
+        <v>-0.12000000000000455</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>-6.7810810810808531E-2</v>
+        <v>-4.2285714285717341E-2</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>-5.3759445696016428E-2</v>
+        <v>-0.13202211824749099</v>
       </c>
       <c r="H27" s="16">
         <f t="shared" si="3"/>
-        <v>-7.1570256506827801E-2</v>
+        <v>-5.4307832533203787E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -7453,30 +5857,30 @@
         <v>8</v>
       </c>
       <c r="B28" s="5">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D28" s="42">
-        <v>150.1</v>
+        <v>79.89</v>
       </c>
       <c r="E28" s="41">
         <f t="shared" si="4"/>
-        <v>9.9999999999994316E-2</v>
+        <v>-0.10999999999999943</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>8.2189189189182943E-2</v>
+        <v>-3.2285714285712225E-2</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="0"/>
-        <v>9.4354249134852353E-2</v>
+        <v>-0.12374423335420204</v>
       </c>
       <c r="H28" s="16">
         <f t="shared" si="3"/>
-        <v>7.654343832404098E-2</v>
+        <v>-4.6029947639914831E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -7484,30 +5888,30 @@
         <v>9</v>
       </c>
       <c r="B29" s="5">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="D29" s="42">
-        <v>125.05</v>
+        <v>90.02</v>
       </c>
       <c r="E29" s="41">
         <f t="shared" si="4"/>
-        <v>4.9999999999997158E-2</v>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>3.2189189189185785E-2</v>
+        <v>9.7714285714283228E-2</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="0"/>
-        <v>4.5296461387820841E-2</v>
+        <v>4.5130068025258652E-3</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="3"/>
-        <v>2.7485650577009472E-2</v>
+        <v>8.2227292516813072E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -7515,30 +5919,30 @@
         <v>10</v>
       </c>
       <c r="B30" s="5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D30" s="42">
-        <v>75</v>
+        <v>99.92</v>
       </c>
       <c r="E30" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-7.9999999999998295E-2</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>-1.7810810810811369E-2</v>
+        <v>-2.2857142857110879E-3</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="0"/>
-        <v>-2.820994769393792E-3</v>
+        <v>-9.7190183962354126E-2</v>
       </c>
       <c r="H30" s="16">
         <f t="shared" si="3"/>
-        <v>-2.0631805580205161E-2</v>
+        <v>-1.947589824806692E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -7546,30 +5950,30 @@
         <v>11</v>
       </c>
       <c r="B31" s="5">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="D31" s="42">
-        <v>25.01</v>
+        <v>109.92</v>
       </c>
       <c r="E31" s="41">
         <f t="shared" si="4"/>
-        <v>1.0000000000001563E-2</v>
+        <v>-7.9999999999998295E-2</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>-7.8108108108098061E-3</v>
+        <v>-2.2857142857110879E-3</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="0"/>
-        <v>9.0592922775662998E-3</v>
+        <v>-9.8910578674349381E-2</v>
       </c>
       <c r="H31" s="16">
         <f t="shared" si="3"/>
-        <v>-8.7515185332450694E-3</v>
+        <v>-2.1196292960062174E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -7577,30 +5981,30 @@
         <v>12</v>
       </c>
       <c r="B32" s="5">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D32" s="42">
-        <v>19.920000000000002</v>
+        <v>119.91</v>
       </c>
       <c r="E32" s="41">
         <f t="shared" si="4"/>
-        <v>-7.9999999999998295E-2</v>
+        <v>-9.0000000000003411E-2</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
-        <v>-9.7810810810809667E-2</v>
+        <v>-1.2285714285716204E-2</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="0"/>
-        <v>-8.0749256210751241E-2</v>
+        <v>-0.11062925299165727</v>
       </c>
       <c r="H32" s="16">
         <f t="shared" si="3"/>
-        <v>-9.8560067021562614E-2</v>
+        <v>-3.2914967277370061E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -7608,30 +6012,30 @@
         <v>13</v>
       </c>
       <c r="B33" s="5">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="D33" s="42">
-        <v>15</v>
+        <v>129.96</v>
       </c>
       <c r="E33" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3.9999999999992042E-2</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>-1.7810810810811369E-2</v>
+        <v>3.7714285714295165E-2</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="0"/>
-        <v>-5.6419895387982422E-4</v>
+        <v>-6.2358249677203048E-2</v>
       </c>
       <c r="H33" s="16">
         <f t="shared" si="3"/>
-        <v>-1.8375009764691193E-2</v>
+        <v>1.5356036037084159E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -7639,30 +6043,30 @@
         <v>14</v>
       </c>
       <c r="B34" s="5">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D34" s="42">
-        <v>10.039999999999999</v>
+        <v>139.94</v>
       </c>
       <c r="E34" s="41">
         <f t="shared" si="4"/>
-        <v>3.9999999999999147E-2</v>
+        <v>-6.0000000000002274E-2</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>2.2189189189187778E-2</v>
+        <v>1.7714285714284933E-2</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="0"/>
-        <v>3.9622362833535263E-2</v>
+        <v>-8.4075203599809356E-2</v>
       </c>
       <c r="H34" s="16">
         <f t="shared" si="3"/>
-        <v>2.1811552022723894E-2</v>
+        <v>-6.3609178855221493E-3</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7670,30 +6074,30 @@
         <v>15</v>
       </c>
       <c r="B35" s="6">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="C35" s="52">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="D35" s="43">
-        <v>5.13</v>
+        <v>149.99</v>
       </c>
       <c r="E35" s="41">
         <f t="shared" si="4"/>
-        <v>0.12999999999999989</v>
+        <v>-9.9999999999909051E-3</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>0.11218918918918852</v>
+        <v>6.7714285714296302E-2</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="0"/>
-        <v>0.12980704395777298</v>
+        <v>-3.5804200285355137E-2</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="3"/>
-        <v>0.11199623314696161</v>
+        <v>4.191008542893207E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -7838,10 +6242,10 @@
         <v>-0.15000000000000002</v>
       </c>
       <c r="K49" s="67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49" s="67">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -7854,10 +6258,10 @@
         <v>-5.0000000000000017E-2</v>
       </c>
       <c r="K50" s="67">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L50" s="67">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -7870,10 +6274,10 @@
         <v>0.05</v>
       </c>
       <c r="K51" s="67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L51" s="67">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -7886,10 +6290,10 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="K52" s="67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L52" s="67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -7960,8 +6364,10 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="D21:E35 C9:C11 C36:D36" name="Bereich1"/>
+    <protectedRange sqref="E21:E35 C9:C11 C36:D36" name="Bereich1"/>
     <protectedRange sqref="C5:C7" name="Bereich2"/>
+    <protectedRange sqref="D27:D35" name="Bereich1_2"/>
+    <protectedRange sqref="D21:D26" name="Bereich1_3"/>
   </protectedRanges>
   <mergeCells count="2">
     <mergeCell ref="E19:F19"/>

--- a/resources/CalibrationCalcul.xlsx
+++ b/resources/CalibrationCalcul.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E00648-38AA-46EA-B06E-EF09C44FEACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C01F507-3D6E-458F-9CAC-DC50908EF379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2820" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-2820" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="X" sheetId="3" r:id="rId1"/>
-    <sheet name="Y" sheetId="8" r:id="rId2"/>
-    <sheet name="Z" sheetId="9" r:id="rId3"/>
+    <sheet name="Utilisation" sheetId="10" r:id="rId1"/>
+    <sheet name="X" sheetId="3" r:id="rId2"/>
+    <sheet name="Y" sheetId="8" r:id="rId3"/>
+    <sheet name="Z" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,68 @@
     <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{2BF8A11C-D0D2-41A9-A213-A9225338C72D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pour récupérer la valeur Gcode M503</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{6603DD5E-9C18-4287-A5F5-05B0321A7C22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pour récupérer la valeur Gcode M503</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{8C47B1A0-722C-449E-B947-672633F6E11B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pour récupérer la valeur</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Gcode M503</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +125,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
@@ -100,7 +162,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
@@ -147,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
   <si>
     <t>X</t>
   </si>
@@ -179,12 +241,6 @@
     <t>M500</t>
   </si>
   <si>
-    <t>To save:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thingiverse.com/thing:2484766  </t>
-  </si>
-  <si>
     <t>Ender 3</t>
   </si>
   <si>
@@ -201,9 +257,6 @@
   </si>
   <si>
     <t>Multiplicateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test de précision de l'imprimante 3D à utiliser avec : </t>
   </si>
   <si>
     <t>échelle</t>
@@ -321,17 +374,36 @@
   <si>
     <t>Cura 4.12</t>
   </si>
+  <si>
+    <t xml:space="preserve">Test de précision de l'imprimante 3D  </t>
+  </si>
+  <si>
+    <t>Réglage de l'axe  X [pas par mm]</t>
+  </si>
+  <si>
+    <t>Réglage de l'axe  Y [pas par mm]</t>
+  </si>
+  <si>
+    <t>Pour sauver:</t>
+  </si>
+  <si>
+    <t>Code pour mise à jour</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,39 +449,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="20"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -760,11 +802,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -834,11 +875,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -862,9 +899,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="173" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -905,7 +943,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>X!$C$5</c:f>
+              <c:f>X!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -934,7 +972,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>X!$C$22:$C$36</c:f>
+              <c:f>X!$C$21:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -988,7 +1026,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>X!$E$22:$E$36</c:f>
+              <c:f>X!$E$21:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1052,7 +1090,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>X!$D$5</c:f>
+              <c:f>X!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1085,7 +1123,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>X!$C$22:$C$36</c:f>
+              <c:f>X!$C$21:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1139,7 +1177,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>X!$G$22:$G$36</c:f>
+              <c:f>X!$G$21:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1348,7 +1386,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>X!$K$45</c:f>
+              <c:f>X!$K$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1360,7 +1398,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>X!$J$46:$J$57</c:f>
+              <c:f>X!$J$45:$J$56</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1404,7 +1442,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>X!$K$46:$K$57</c:f>
+              <c:f>X!$K$45:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1458,7 +1496,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>X!$L$45</c:f>
+              <c:f>X!$L$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1470,7 +1508,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>X!$J$46:$J$57</c:f>
+              <c:f>X!$J$45:$J$56</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1514,7 +1552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>X!$L$46:$L$57</c:f>
+              <c:f>X!$L$45:$L$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3173,13 +3211,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>212911</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>605118</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3209,13 +3247,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>129256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>139195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3245,13 +3283,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3539839</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4368,1028 +4406,1139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A3922D-2881-47BF-8725-35FE8ABA428B}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="70">
+        <v>44511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="12">
+        <v>80</v>
+      </c>
+      <c r="D9" s="13">
+        <f>X!D5</f>
+        <v>80.026106310501035</v>
+      </c>
+      <c r="F9" s="13" t="str">
+        <f>X!D6</f>
+        <v>M92 X80.026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="12">
+        <v>80</v>
+      </c>
+      <c r="D10" s="13">
+        <f>Y!D5</f>
+        <v>79.986236842303967</v>
+      </c>
+      <c r="F10" s="13" t="str">
+        <f>Y!D6</f>
+        <v>M92 Y79.986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="12">
+        <v>400</v>
+      </c>
+      <c r="D11" s="13">
+        <f>Z!D5</f>
+        <v>399.54466732671835</v>
+      </c>
+      <c r="F11" s="13" t="str">
+        <f>Z!D6</f>
+        <v>M92 Z399.545</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="C9:C10" name="Bereich2"/>
+    <protectedRange sqref="C11" name="Bereich2_1"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="11" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="E1" s="61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="68">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="64">
         <v>1</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="12">
+        <f>Utilisation!C9</f>
+        <v>80</v>
+      </c>
+      <c r="D5" s="13">
+        <f>C10*C5</f>
+        <v>80.026106310501035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="69" t="str">
+        <f>CONCATENATE("M92 X",ROUND(D5,3))</f>
+        <v>M92 X80.026</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="47">
+        <f>SQRT(SUMSQ(F21:F35)/COUNT(F21:F35))</f>
+        <v>7.2634892884886462E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SQRT(SUMSQ(H22:H34)/COUNT(H22:H34))</f>
+        <v>6.1130948647502813E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="12">
-        <v>80</v>
-      </c>
-      <c r="D6" s="13">
-        <f>C11*C6</f>
-        <v>80.026106310501035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="13" t="str">
-        <f>CONCATENATE("M92 X",D6)</f>
-        <v>M92 X80.026106310501</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="37">
+        <f>INTERCEPT(E21:E35,C21:C35)</f>
+        <v>-7.8380952380953273E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9</f>
+        <v>-7.8380952380953273E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="47">
-        <f>SQRT(SUMSQ(F22:F36)/COUNT(F22:F36))</f>
-        <v>7.2634892884886462E-2</v>
-      </c>
-      <c r="D9" s="4">
-        <f>SQRT(SUMSQ(H23:H35)/COUNT(H23:H35))</f>
+      <c r="B10" s="3"/>
+      <c r="C10" s="60">
+        <f>SLOPE(C21:C35,D21:D35)</f>
+        <v>1.0003263288812629</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="39"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="39"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="24">
+        <f>C8+ABS(C9)</f>
+        <v>0.15101584526583972</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D8</f>
         <v>6.1130948647502813E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="37">
-        <f>INTERCEPT(E22:E36,C22:C36)</f>
-        <v>-7.8380952380953273E-2</v>
-      </c>
-      <c r="D10" s="4">
-        <f>C10</f>
-        <v>-7.8380952380953273E-2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="64">
-        <f>SLOPE(C22:C36,D22:D36)</f>
-        <v>1.0003263288812629</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="39"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="20">
+        <f>C8*2+ABS(C9)</f>
+        <v>0.2236507381507262</v>
+      </c>
+      <c r="D15" s="4">
+        <f>D8*2</f>
+        <v>0.12226189729500563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="24">
-        <f>C9+ABS(C10)</f>
-        <v>0.15101584526583972</v>
-      </c>
-      <c r="D15" s="4">
-        <f>D9</f>
-        <v>6.1130948647502813E-2</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="20">
-        <f>C9*2+ABS(C10)</f>
-        <v>0.2236507381507262</v>
+        <f>C8*3+ABS(C9)</f>
+        <v>0.29628563103561267</v>
       </c>
       <c r="D16" s="4">
-        <f>D9*2</f>
-        <v>0.12226189729500563</v>
+        <f>D8*3</f>
+        <v>0.18339284594250843</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
+      <c r="A17" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="20">
-        <f>C9*3+ABS(C10)</f>
-        <v>0.29628563103561267</v>
-      </c>
-      <c r="D17" s="4">
-        <f>D9*3</f>
-        <v>0.18339284594250843</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="26">
-        <f>(1-C11)</f>
+      <c r="C17" s="26">
+        <f>(1-C10)</f>
         <v>-3.2632888126293835E-4</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D17" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="68"/>
+      <c r="G19" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="23"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>45</v>
+      <c r="A21" s="40">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <f>B21*$B$2</f>
+        <v>10</v>
+      </c>
+      <c r="D21" s="42">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E21" s="44">
+        <f>D21-C21</f>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <f>E21-$C$9</f>
+        <v>2.8380952380952562E-2</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" ref="G21:G35" si="0">D21*$C$10-C21</f>
+        <v>-4.6753027631433852E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <f>G21-$C$9</f>
+        <v>3.162792474951942E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
-        <v>1</v>
-      </c>
+      <c r="A22" s="40"/>
       <c r="B22" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3">
-        <f>B22*$B$3</f>
-        <v>10</v>
+        <f t="shared" ref="C22:C35" si="1">B22*$B$2</f>
+        <v>20</v>
       </c>
       <c r="D22" s="42">
-        <v>9.9499999999999993</v>
+        <v>19.91</v>
       </c>
       <c r="E22" s="44">
         <f>D22-C22</f>
-        <v>-5.0000000000000711E-2</v>
+        <v>-8.9999999999999858E-2</v>
       </c>
       <c r="F22" s="7">
-        <f>E22-$C$10</f>
-        <v>2.8380952380952562E-2</v>
+        <f t="shared" ref="F22:F35" si="2">E22-$C$9</f>
+        <v>-1.1619047619046585E-2</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" ref="G22:G36" si="0">D22*$C$11-C22</f>
-        <v>-4.6753027631433852E-2</v>
+        <f t="shared" si="0"/>
+        <v>-8.3502791974055413E-2</v>
       </c>
       <c r="H22" s="7">
-        <f>G22-$C$10</f>
-        <v>3.162792474951942E-2</v>
+        <f t="shared" ref="H22:H35" si="3">G22-$C$9</f>
+        <v>-5.1218395931021399E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="40">
+        <v>3</v>
+      </c>
       <c r="B23" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ref="C23:C36" si="1">B23*$B$3</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="D23" s="42">
-        <v>19.91</v>
+        <v>29.94</v>
       </c>
       <c r="E23" s="44">
-        <f>D23-C23</f>
-        <v>-8.9999999999999858E-2</v>
+        <f t="shared" ref="E23:E35" si="4">D23-C23</f>
+        <v>-5.9999999999998721E-2</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" ref="F23:F36" si="2">E23-$C$10</f>
-        <v>-1.1619047619046585E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8380952380954552E-2</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="0"/>
-        <v>-8.3502791974055413E-2</v>
+        <v>-5.0229713294985601E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:H36" si="3">G23-$C$10</f>
-        <v>-5.1218395931021399E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.8151239085967672E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D24" s="42">
-        <v>29.94</v>
+        <v>39.96</v>
       </c>
       <c r="E24" s="44">
-        <f t="shared" ref="E24:E36" si="4">D24-C24</f>
-        <v>-5.9999999999998721E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.9999999999999147E-2</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="2"/>
-        <v>1.8380952380954552E-2</v>
+        <v>3.8380952380954125E-2</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="0"/>
-        <v>-5.0229713294985601E-2</v>
+        <v>-2.6959897904731633E-2</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="3"/>
-        <v>2.8151239085967672E-2</v>
+        <v>5.1421054476221639E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" s="42">
-        <v>39.96</v>
+        <v>49.92</v>
       </c>
       <c r="E25" s="44">
         <f t="shared" si="4"/>
-        <v>-3.9999999999999147E-2</v>
+        <v>-7.9999999999998295E-2</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="2"/>
-        <v>3.8380952380954125E-2</v>
+        <v>-1.619047619045022E-3</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="0"/>
-        <v>-2.6959897904731633E-2</v>
+        <v>-6.370966224735497E-2</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="3"/>
-        <v>5.1421054476221639E-2</v>
+        <v>1.4671290133598303E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D26" s="42">
-        <v>49.92</v>
+        <v>59.93</v>
       </c>
       <c r="E26" s="44">
         <f t="shared" si="4"/>
-        <v>-7.9999999999998295E-2</v>
+        <v>-7.0000000000000284E-2</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="2"/>
-        <v>-1.619047619045022E-3</v>
+        <v>8.3809523809529884E-3</v>
       </c>
       <c r="G26" s="9">
         <f t="shared" si="0"/>
-        <v>-6.370966224735497E-2</v>
+        <v>-5.0443110145913295E-2</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="3"/>
-        <v>1.4671290133598303E-2</v>
+        <v>2.7937842235039978E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D27" s="42">
-        <v>59.93</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="E27" s="44">
         <f t="shared" si="4"/>
-        <v>-7.0000000000000284E-2</v>
+        <v>-0.15000000000000568</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="2"/>
-        <v>8.3809523809529884E-3</v>
+        <v>-7.1619047619052412E-2</v>
       </c>
       <c r="G27" s="9">
         <f t="shared" si="0"/>
-        <v>-5.0443110145913295E-2</v>
+        <v>-0.1272059276437858</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="3"/>
-        <v>2.7937842235039978E-2</v>
+        <v>-4.8824975262832526E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D28" s="42">
-        <v>69.849999999999994</v>
+        <v>79.83</v>
       </c>
       <c r="E28" s="44">
         <f t="shared" si="4"/>
-        <v>-0.15000000000000568</v>
+        <v>-0.17000000000000171</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="2"/>
-        <v>-7.1619047619052412E-2</v>
+        <v>-9.1619047619048433E-2</v>
       </c>
       <c r="G28" s="9">
         <f t="shared" si="0"/>
-        <v>-0.1272059276437858</v>
+        <v>-0.14394916540878455</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="3"/>
-        <v>-4.8824975262832526E-2</v>
+        <v>-6.5568213027831279E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" s="5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D29" s="42">
-        <v>79.83</v>
+        <v>89.76</v>
       </c>
       <c r="E29" s="44">
         <f t="shared" si="4"/>
-        <v>-0.17000000000000171</v>
+        <v>-0.23999999999999488</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="2"/>
-        <v>-9.1619047619048433E-2</v>
+        <v>-0.16161904761904161</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="0"/>
-        <v>-0.14394916540878455</v>
+        <v>-0.210708719617827</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="3"/>
-        <v>-6.5568213027831279E-2</v>
+        <v>-0.13232776723687373</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D30" s="42">
-        <v>89.76</v>
+        <v>99.94</v>
       </c>
       <c r="E30" s="44">
         <f t="shared" si="4"/>
-        <v>-0.23999999999999488</v>
+        <v>-6.0000000000002274E-2</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="2"/>
-        <v>-0.16161904761904161</v>
+        <v>1.8380952380950999E-2</v>
       </c>
       <c r="G30" s="9">
         <f t="shared" si="0"/>
-        <v>-0.210708719617827</v>
+        <v>-2.7386691606579916E-2</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="3"/>
-        <v>-0.13232776723687373</v>
+        <v>5.0994260774373357E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" s="5">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D31" s="42">
-        <v>99.94</v>
+        <v>109.78</v>
       </c>
       <c r="E31" s="44">
         <f t="shared" si="4"/>
-        <v>-6.0000000000002274E-2</v>
+        <v>-0.21999999999999886</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="2"/>
-        <v>1.8380952380950999E-2</v>
+        <v>-0.14161904761904559</v>
       </c>
       <c r="G31" s="9">
         <f t="shared" si="0"/>
-        <v>-2.7386691606579916E-2</v>
+        <v>-0.18417561541495786</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="3"/>
-        <v>5.0994260774373357E-2</v>
+        <v>-0.10579466303400459</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" s="5">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D32" s="42">
-        <v>109.78</v>
+        <v>119.95</v>
       </c>
       <c r="E32" s="44">
         <f t="shared" si="4"/>
-        <v>-0.21999999999999886</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="2"/>
-        <v>-0.14161904761904559</v>
+        <v>2.8380952380956115E-2</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="0"/>
-        <v>-0.18417561541495786</v>
+        <v>-1.0856850692505304E-2</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="3"/>
-        <v>-0.10579466303400459</v>
+        <v>6.7524101688447968E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" s="5">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D33" s="42">
-        <v>119.95</v>
+        <v>129.84</v>
       </c>
       <c r="E33" s="44">
         <f t="shared" si="4"/>
-        <v>-4.9999999999997158E-2</v>
+        <v>-0.15999999999999659</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="2"/>
-        <v>2.8380952380956115E-2</v>
+        <v>-8.1619047619043317E-2</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="0"/>
-        <v>-1.0856850692505304E-2</v>
+        <v>-0.11762945805682534</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="3"/>
-        <v>6.7524101688447968E-2</v>
+        <v>-3.924850567587207E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" s="5">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D34" s="42">
-        <v>129.84</v>
+        <v>139.87</v>
       </c>
       <c r="E34" s="44">
         <f t="shared" si="4"/>
-        <v>-0.15999999999999659</v>
+        <v>-0.12999999999999545</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="2"/>
-        <v>-8.1619047619043317E-2</v>
+        <v>-5.161904761904218E-2</v>
       </c>
       <c r="G34" s="9">
         <f t="shared" si="0"/>
-        <v>-0.11762945805682534</v>
+        <v>-8.4356379377737767E-2</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="3"/>
-        <v>-3.924850567587207E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-5.9754269967844942E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>14</v>
-      </c>
-      <c r="B35" s="5">
-        <v>140</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="D35" s="42">
-        <v>139.87</v>
-      </c>
-      <c r="E35" s="44">
-        <f t="shared" si="4"/>
-        <v>-0.12999999999999545</v>
-      </c>
-      <c r="F35" s="7">
-        <f t="shared" si="2"/>
-        <v>-5.161904761904218E-2</v>
-      </c>
-      <c r="G35" s="9">
-        <f t="shared" si="0"/>
-        <v>-8.4356379377737767E-2</v>
-      </c>
-      <c r="H35" s="7">
-        <f t="shared" si="3"/>
-        <v>-5.9754269967844942E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40">
         <v>15</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B35" s="6">
         <v>150</v>
       </c>
-      <c r="C36" s="52">
+      <c r="C35" s="52">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D35" s="43">
         <v>150</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E35" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F35" s="8">
         <f t="shared" si="2"/>
         <v>7.8380952380953273E-2</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G35" s="10">
         <f t="shared" si="0"/>
         <v>4.89493321894372E-2</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H35" s="8">
         <f t="shared" si="3"/>
         <v>0.12733028457039047</v>
       </c>
     </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+    </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
+      <c r="A37" s="58" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
-        <v>2</v>
-      </c>
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="I44" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="I45" s="30">
+        <v>-0.5</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="62">
+        <f t="array" ref="K45:K56">FREQUENCY(E21:E35,I45:I55)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="62">
+        <f t="array" ref="L45:L56">FREQUENCY(G21:G35,I45:I55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I46" s="3">
+        <f>I45+0.1</f>
+        <v>-0.4</v>
+      </c>
+      <c r="J46" s="3">
+        <f>AVERAGE(I45:I46)</f>
+        <v>-0.45</v>
+      </c>
+      <c r="K46" s="63">
+        <v>0</v>
+      </c>
+      <c r="L46" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="I45" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="L45" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="I46" s="30">
-        <v>-0.5</v>
-      </c>
-      <c r="J46" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="66">
-        <f t="array" ref="K46:K57">FREQUENCY(E22:E36,I46:I56)</f>
+      <c r="I47" s="3">
+        <f t="shared" ref="I47:I55" si="5">I46+0.1</f>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" ref="J47:J55" si="6">AVERAGE(I46:I47)</f>
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="K47" s="63">
         <v>0</v>
       </c>
-      <c r="L46" s="66">
-        <f t="array" ref="L46:L57">FREQUENCY(G22:G36,I46:I56)</f>
+      <c r="L47" s="63">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I47" s="3">
-        <f>I46+0.1</f>
-        <v>-0.4</v>
-      </c>
-      <c r="J47" s="3">
-        <f>AVERAGE(I46:I47)</f>
-        <v>-0.45</v>
-      </c>
-      <c r="K47" s="67">
-        <v>0</v>
-      </c>
-      <c r="L47" s="67">
-        <v>0</v>
-      </c>
-    </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
       <c r="I48" s="3">
-        <f t="shared" ref="I48:I56" si="5">I47+0.1</f>
-        <v>-0.30000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>-0.20000000000000004</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" ref="J48:J56" si="6">AVERAGE(I47:I48)</f>
-        <v>-0.35000000000000003</v>
-      </c>
-      <c r="K48" s="67">
-        <v>0</v>
-      </c>
-      <c r="L48" s="67">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-0.25000000000000006</v>
+      </c>
+      <c r="K48" s="63">
+        <v>2</v>
+      </c>
+      <c r="L48" s="63">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I49" s="3">
         <f t="shared" si="5"/>
-        <v>-0.20000000000000004</v>
+        <v>-0.10000000000000003</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="6"/>
-        <v>-0.25000000000000006</v>
-      </c>
-      <c r="K49" s="67">
-        <v>2</v>
-      </c>
-      <c r="L49" s="67">
-        <v>1</v>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="K49" s="63">
+        <v>4</v>
+      </c>
+      <c r="L49" s="63">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I50" s="3">
         <f t="shared" si="5"/>
-        <v>-0.10000000000000003</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="6"/>
-        <v>-0.15000000000000002</v>
-      </c>
-      <c r="K50" s="67">
-        <v>4</v>
-      </c>
-      <c r="L50" s="67">
-        <v>4</v>
+        <v>-5.0000000000000017E-2</v>
+      </c>
+      <c r="K50" s="63">
+        <v>9</v>
+      </c>
+      <c r="L50" s="63">
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I51" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="6"/>
-        <v>-5.0000000000000017E-2</v>
-      </c>
-      <c r="K51" s="67">
-        <v>9</v>
-      </c>
-      <c r="L51" s="67">
-        <v>9</v>
+        <v>0.05</v>
+      </c>
+      <c r="K51" s="63">
+        <v>0</v>
+      </c>
+      <c r="L51" s="63">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I52" s="3">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="6"/>
-        <v>0.05</v>
-      </c>
-      <c r="K52" s="67">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K52" s="63">
         <v>0</v>
       </c>
-      <c r="L52" s="67">
-        <v>1</v>
+      <c r="L52" s="63">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
       <c r="I53" s="3">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="6"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="K53" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="K53" s="63">
         <v>0</v>
       </c>
-      <c r="L53" s="67">
+      <c r="L53" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
       <c r="I54" s="3">
         <f t="shared" si="5"/>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="K54" s="67">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="K54" s="63">
         <v>0</v>
       </c>
-      <c r="L54" s="67">
+      <c r="L54" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I55" s="3">
         <f t="shared" si="5"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="6"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="K55" s="67">
+        <v>0.45</v>
+      </c>
+      <c r="K55" s="63">
         <v>0</v>
       </c>
-      <c r="L55" s="67">
+      <c r="L55" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I56" s="3">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="J56" s="3">
-        <f t="shared" si="6"/>
-        <v>0.45</v>
-      </c>
-      <c r="K56" s="67">
+      <c r="I56" s="3"/>
+      <c r="J56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K56" s="63">
         <v>0</v>
       </c>
-      <c r="L56" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I57" s="3"/>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="67">
-        <v>0</v>
-      </c>
-      <c r="L57" s="67">
+      <c r="L56" s="63">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="D22:E36 C10:C12 C37:D37" name="Bereich1"/>
-    <protectedRange sqref="C6:C8" name="Bereich2"/>
+    <protectedRange sqref="D21:E35 C9:C11 C36:D36" name="Bereich1"/>
+    <protectedRange sqref="C5:C7" name="Bereich2"/>
   </protectedRanges>
   <mergeCells count="2">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5402,7 +5551,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
@@ -5410,9 +5559,9 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="68">
+        <v>16</v>
+      </c>
+      <c r="B2" s="64">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
@@ -5422,25 +5571,26 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12">
+        <f>Utilisation!C10</f>
         <v>80</v>
       </c>
       <c r="D5" s="13">
@@ -5457,11 +5607,11 @@
         <v>7</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f>CONCATENATE("M92 ",B1,D5)</f>
-        <v>M92 Y79.986236842304</v>
+        <f>CONCATENATE("M92 ",B1,ROUND(D5,3))</f>
+        <v>M92 Y79.986</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -5475,7 +5625,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="47">
@@ -5489,7 +5639,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="37">
@@ -5501,15 +5651,15 @@
         <v>-7.7714285714287207E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="64">
+      <c r="C10" s="60">
         <f>SLOPE(C21:C35,D21:D35)</f>
         <v>0.99982796052879952</v>
       </c>
@@ -5525,12 +5675,12 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4">
@@ -5542,7 +5692,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="24">
@@ -5556,7 +5706,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="20">
@@ -5570,7 +5720,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="20">
@@ -5584,7 +5734,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="26">
@@ -5597,42 +5747,42 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="72"/>
+      <c r="B19" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="68"/>
       <c r="G19" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -6116,49 +6266,49 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
       <c r="I44" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J44" s="32"/>
       <c r="K44" s="32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L44" s="33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -6172,11 +6322,11 @@
       <c r="J45" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="66">
+      <c r="K45" s="62">
         <f t="array" ref="K45:K56">FREQUENCY(E21:E35,I45:I55)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="66">
+      <c r="L45" s="62">
         <f t="array" ref="L45:L56">FREQUENCY(G21:G35,I45:I55)</f>
         <v>0</v>
       </c>
@@ -6190,16 +6340,16 @@
         <f>AVERAGE(I45:I46)</f>
         <v>-0.45</v>
       </c>
-      <c r="K46" s="67">
+      <c r="K46" s="63">
         <v>0</v>
       </c>
-      <c r="L46" s="67">
+      <c r="L46" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" ref="I47:I55" si="5">I46+0.1</f>
@@ -6209,10 +6359,10 @@
         <f t="shared" ref="J47:J54" si="6">AVERAGE(I46:I47)</f>
         <v>-0.35000000000000003</v>
       </c>
-      <c r="K47" s="67">
+      <c r="K47" s="63">
         <v>0</v>
       </c>
-      <c r="L47" s="67">
+      <c r="L47" s="63">
         <v>0</v>
       </c>
     </row>
@@ -6225,10 +6375,10 @@
         <f t="shared" si="6"/>
         <v>-0.25000000000000006</v>
       </c>
-      <c r="K48" s="67">
+      <c r="K48" s="63">
         <v>0</v>
       </c>
-      <c r="L48" s="67">
+      <c r="L48" s="63">
         <v>0</v>
       </c>
     </row>
@@ -6241,10 +6391,10 @@
         <f t="shared" si="6"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="K49" s="67">
+      <c r="K49" s="63">
         <v>2</v>
       </c>
-      <c r="L49" s="67">
+      <c r="L49" s="63">
         <v>3</v>
       </c>
     </row>
@@ -6257,10 +6407,10 @@
         <f t="shared" si="6"/>
         <v>-5.0000000000000017E-2</v>
       </c>
-      <c r="K50" s="67">
+      <c r="K50" s="63">
         <v>12</v>
       </c>
-      <c r="L50" s="67">
+      <c r="L50" s="63">
         <v>11</v>
       </c>
     </row>
@@ -6273,10 +6423,10 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="K51" s="67">
+      <c r="K51" s="63">
         <v>1</v>
       </c>
-      <c r="L51" s="67">
+      <c r="L51" s="63">
         <v>1</v>
       </c>
     </row>
@@ -6289,10 +6439,10 @@
         <f t="shared" si="6"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="K52" s="67">
+      <c r="K52" s="63">
         <v>0</v>
       </c>
-      <c r="L52" s="67">
+      <c r="L52" s="63">
         <v>0</v>
       </c>
     </row>
@@ -6311,10 +6461,10 @@
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="K53" s="67">
+      <c r="K53" s="63">
         <v>0</v>
       </c>
-      <c r="L53" s="67">
+      <c r="L53" s="63">
         <v>0</v>
       </c>
     </row>
@@ -6327,10 +6477,10 @@
         <f t="shared" si="6"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="K54" s="67">
+      <c r="K54" s="63">
         <v>0</v>
       </c>
-      <c r="L54" s="67">
+      <c r="L54" s="63">
         <v>0</v>
       </c>
     </row>
@@ -6343,10 +6493,10 @@
         <f>AVERAGE(I54:I55)</f>
         <v>0.45</v>
       </c>
-      <c r="K55" s="67">
+      <c r="K55" s="63">
         <v>0</v>
       </c>
-      <c r="L55" s="67">
+      <c r="L55" s="63">
         <v>0</v>
       </c>
     </row>
@@ -6355,10 +6505,10 @@
       <c r="J56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K56" s="67">
+      <c r="K56" s="63">
         <v>0</v>
       </c>
-      <c r="L56" s="67">
+      <c r="L56" s="63">
         <v>0</v>
       </c>
     </row>
@@ -6380,12 +6530,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6404,7 +6554,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>3</v>
@@ -6412,9 +6562,9 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="68">
+        <v>16</v>
+      </c>
+      <c r="B2" s="64">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
@@ -6425,25 +6575,26 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="12">
+        <f>Utilisation!C11</f>
         <v>400</v>
       </c>
       <c r="D5" s="13">
@@ -6460,11 +6611,11 @@
         <v>7</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f>CONCATENATE("M92 ",B1,D5)</f>
-        <v>M92 Z399.544667326718</v>
+        <f>CONCATENATE("M92 ",B1,ROUND(D5,3))</f>
+        <v>M92 Z399.545</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -6478,7 +6629,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="47">
@@ -6490,12 +6641,12 @@
         <v>5.3609102872992337E-2</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="37">
@@ -6509,10 +6660,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" t="s">
@@ -6521,17 +6672,17 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="65">
+      <c r="C10" s="61">
         <f>SLOPE(C21:C35,D21:D35)</f>
         <v>0.9988616683167959</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="39"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="11">
         <v>2.35</v>
@@ -6541,8 +6692,8 @@
         <v>2.1319831045406548</v>
       </c>
       <c r="I10" s="55" t="str">
-        <f>CONCATENATE("M851 ",B1,H10)</f>
-        <v>M851 Z2.13198310454065</v>
+        <f>CONCATENATE("M851 ",B1,ROUND(H10,3))</f>
+        <v>M851 Z2.132</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
@@ -6557,12 +6708,12 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4">
@@ -6574,7 +6725,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="24">
@@ -6588,7 +6739,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="20">
@@ -6602,7 +6753,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="20">
@@ -6616,7 +6767,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="26">
@@ -6629,42 +6780,42 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="72"/>
+      <c r="B19" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="68"/>
       <c r="G19" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7022,49 +7173,49 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="I44" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J44" s="32"/>
       <c r="K44" s="32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L44" s="33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -7078,11 +7229,11 @@
       <c r="J45" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="66">
+      <c r="K45" s="62">
         <f t="array" ref="K45:K56">FREQUENCY(E21:E35,I45:I55)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="66">
+      <c r="L45" s="62">
         <f t="array" ref="L45:L56">FREQUENCY(G21:G35,I45:I55)</f>
         <v>0</v>
       </c>
@@ -7096,16 +7247,16 @@
         <f>AVERAGE(I45:I46)</f>
         <v>-0.45</v>
       </c>
-      <c r="K46" s="67">
+      <c r="K46" s="63">
         <v>0</v>
       </c>
-      <c r="L46" s="67">
+      <c r="L46" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" ref="I47:I55" si="5">I46+0.1</f>
@@ -7115,10 +7266,10 @@
         <f t="shared" ref="J47:J55" si="6">AVERAGE(I46:I47)</f>
         <v>-0.35000000000000003</v>
       </c>
-      <c r="K47" s="67">
+      <c r="K47" s="63">
         <v>0</v>
       </c>
-      <c r="L47" s="67">
+      <c r="L47" s="63">
         <v>0</v>
       </c>
     </row>
@@ -7131,10 +7282,10 @@
         <f t="shared" si="6"/>
         <v>-0.25000000000000006</v>
       </c>
-      <c r="K48" s="67">
+      <c r="K48" s="63">
         <v>3</v>
       </c>
-      <c r="L48" s="67">
+      <c r="L48" s="63">
         <v>6</v>
       </c>
     </row>
@@ -7147,10 +7298,10 @@
         <f t="shared" si="6"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="K49" s="67">
+      <c r="K49" s="63">
         <v>4</v>
       </c>
-      <c r="L49" s="67">
+      <c r="L49" s="63">
         <v>3</v>
       </c>
     </row>
@@ -7163,10 +7314,10 @@
         <f t="shared" si="6"/>
         <v>-5.0000000000000017E-2</v>
       </c>
-      <c r="K50" s="67">
+      <c r="K50" s="63">
         <v>1</v>
       </c>
-      <c r="L50" s="67">
+      <c r="L50" s="63">
         <v>0</v>
       </c>
     </row>
@@ -7179,10 +7330,10 @@
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="K51" s="67">
+      <c r="K51" s="63">
         <v>1</v>
       </c>
-      <c r="L51" s="67">
+      <c r="L51" s="63">
         <v>0</v>
       </c>
     </row>
@@ -7195,10 +7346,10 @@
         <f t="shared" si="6"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="K52" s="67">
+      <c r="K52" s="63">
         <v>0</v>
       </c>
-      <c r="L52" s="67">
+      <c r="L52" s="63">
         <v>0</v>
       </c>
     </row>
@@ -7217,10 +7368,10 @@
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="K53" s="67">
+      <c r="K53" s="63">
         <v>0</v>
       </c>
-      <c r="L53" s="67">
+      <c r="L53" s="63">
         <v>0</v>
       </c>
     </row>
@@ -7233,10 +7384,10 @@
         <f t="shared" si="6"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="K54" s="67">
+      <c r="K54" s="63">
         <v>0</v>
       </c>
-      <c r="L54" s="67">
+      <c r="L54" s="63">
         <v>0</v>
       </c>
     </row>
@@ -7249,10 +7400,10 @@
         <f t="shared" si="6"/>
         <v>0.45</v>
       </c>
-      <c r="K55" s="67">
+      <c r="K55" s="63">
         <v>0</v>
       </c>
-      <c r="L55" s="67">
+      <c r="L55" s="63">
         <v>0</v>
       </c>
     </row>
@@ -7261,10 +7412,10 @@
       <c r="J56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K56" s="67">
+      <c r="K56" s="63">
         <v>0</v>
       </c>
-      <c r="L56" s="67">
+      <c r="L56" s="63">
         <v>0</v>
       </c>
     </row>

--- a/resources/CalibrationCalcul.xlsx
+++ b/resources/CalibrationCalcul.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C01F507-3D6E-458F-9CAC-DC50908EF379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FDD209-BBF7-4C53-93D6-8C0ECDBBDFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2820" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-2820" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisation" sheetId="10" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>Écart type [mm]</t>
   </si>
   <si>
-    <t>écart moyen de l'épaisseur de la paroi [mm]</t>
-  </si>
-  <si>
     <t>Multiplicateur</t>
   </si>
   <si>
@@ -392,6 +389,9 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>écart moyen sur les dimension [mm]</t>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +401,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -887,6 +887,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,8 +901,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3493,16 +3493,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>62022</xdr:rowOff>
+      <xdr:rowOff>50816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>71961</xdr:rowOff>
+      <xdr:rowOff>60755</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4409,7 +4409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A3922D-2881-47BF-8725-35FE8ABA428B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
@@ -4422,14 +4422,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="70">
+        <v>55</v>
+      </c>
+      <c r="B3" s="66">
         <v>44511</v>
       </c>
     </row>
@@ -4444,7 +4444,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4452,23 +4452,23 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="12">
@@ -4493,7 +4493,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="12">
@@ -4539,8 +4539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4557,7 +4557,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>0</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="64">
         <v>1</v>
@@ -4578,17 +4578,17 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4613,12 +4613,12 @@
       <c r="C6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="69" t="str">
+      <c r="D6" s="65" t="str">
         <f>CONCATENATE("M92 X",ROUND(D5,3))</f>
         <v>M92 X80.026</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="37">
@@ -4658,12 +4658,12 @@
         <v>-7.8380952380953273E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="60">
@@ -4682,12 +4682,12 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4">
@@ -4699,7 +4699,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="24">
@@ -4713,7 +4713,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="20">
@@ -4727,7 +4727,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="20">
@@ -4741,7 +4741,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="26">
@@ -4754,42 +4754,42 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="65" t="s">
+      <c r="B19" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="54" t="s">
         <v>46</v>
-      </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="54" t="s">
-        <v>47</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="25" t="s">
+      <c r="G20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="H20" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5271,49 +5271,49 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="I44" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J44" s="32"/>
       <c r="K44" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="33" t="s">
         <v>30</v>
-      </c>
-      <c r="L44" s="33" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" ref="I47:I55" si="5">I46+0.1</f>
@@ -5538,7 +5538,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5551,7 +5551,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="64">
         <v>1</v>
@@ -5571,17 +5571,17 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5611,7 +5611,7 @@
         <v>M92 Y79.986</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="37">
@@ -5651,12 +5651,12 @@
         <v>-7.7714285714287207E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="60">
@@ -5675,12 +5675,12 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4">
@@ -5692,7 +5692,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="24">
@@ -5706,7 +5706,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="20">
@@ -5720,7 +5720,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="20">
@@ -5734,7 +5734,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="26">
@@ -5747,42 +5747,42 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="65" t="s">
+      <c r="B19" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="54" t="s">
         <v>46</v>
-      </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="54" t="s">
-        <v>47</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="25" t="s">
+      <c r="G20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="H20" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -6266,49 +6266,49 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
       <c r="I44" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J44" s="32"/>
       <c r="K44" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="33" t="s">
         <v>30</v>
-      </c>
-      <c r="L44" s="33" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" ref="I47:I55" si="5">I46+0.1</f>
@@ -6535,12 +6535,12 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
@@ -6554,7 +6554,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>3</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="64">
         <v>1</v>
@@ -6575,17 +6575,17 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6615,7 +6615,7 @@
         <v>M92 Z399.545</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -6641,12 +6641,12 @@
         <v>5.3609102872992337E-2</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="37">
@@ -6660,10 +6660,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" t="s">
@@ -6672,7 +6672,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="61">
@@ -6682,7 +6682,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="39"/>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="11">
         <v>2.35</v>
@@ -6708,12 +6708,12 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4">
@@ -6725,7 +6725,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="24">
@@ -6739,7 +6739,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="20">
@@ -6753,7 +6753,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="20">
@@ -6767,7 +6767,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="26">
@@ -6780,42 +6780,42 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="65" t="s">
+      <c r="B19" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="54" t="s">
         <v>46</v>
-      </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="54" t="s">
-        <v>47</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="25" t="s">
+      <c r="G20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="H20" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7173,49 +7173,49 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="I44" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J44" s="32"/>
       <c r="K44" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="33" t="s">
         <v>30</v>
-      </c>
-      <c r="L44" s="33" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" ref="I47:I55" si="5">I46+0.1</f>
